--- a/Work_files/Payments_clean.xlsx
+++ b/Work_files/Payments_clean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shinemet\Ironhack\Projects\Project6\Work_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308D2AB2-7B52-45D2-A891-37C953B14634}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F1EE03-E714-4A08-8ABA-4D45F433167D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{EC262E73-C69C-4C2A-8A9A-BDDEF9F428A1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EC262E73-C69C-4C2A-8A9A-BDDEF9F428A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Payments_forecast" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="160">
   <si>
     <t>Debtor</t>
   </si>
@@ -518,9 +518,6 @@
   </si>
   <si>
     <t>Count of Status</t>
-  </si>
-  <si>
-    <t>Month</t>
   </si>
 </sst>
 </file>
@@ -602,7 +599,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -621,7 +618,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -632,7 +628,28 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{0B708C48-1F28-48E7-8A68-43EA13C77928}"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d/m/yy\ h:mm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d/m/yy\ h:mm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="d/m/yy\ h:mm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -680,30 +697,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d/m/yy\ h:mm;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="[$-40C]mmm\-yy;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d/m/yy\ h:mm;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="d/m/yy\ h:mm;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -3138,7 +3131,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{95C039FA-B6D7-425B-8C2D-57784D0F2AFA}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{95C039FA-B6D7-425B-8C2D-57784D0F2AFA}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:H46" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="25">
     <pivotField showAll="0"/>
@@ -3558,7 +3551,7 @@
     <dataField name="Count of Status" fld="14" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="1">
+    <format dxfId="8">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="15" count="2">
@@ -3568,7 +3561,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="7">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="15" count="2">
@@ -3611,22 +3604,22 @@
     <tableColumn id="10" xr3:uid="{536DF63B-7F01-42D2-BBCD-3FEF5BED86A9}" name="BIC_Country"/>
     <tableColumn id="15" xr3:uid="{01C062DF-2C76-4256-B83A-B74DF98D0E7B}" name="BIC_Location"/>
     <tableColumn id="8" xr3:uid="{6ED88545-179F-45F4-8803-E7DFB29D9606}" name="Charges"/>
-    <tableColumn id="9" xr3:uid="{A1B6B01D-24E3-40D2-B6B0-27C6D4C17445}" name="Date" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{4F3ACB28-FC7F-4F52-9A7B-AA093AB8BF4B}" name="Time (local)" dataDxfId="14"/>
-    <tableColumn id="14" xr3:uid="{FBFA26EF-9E99-4488-AF0B-A9A747C59602}" name="Date-Time" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{A1B6B01D-24E3-40D2-B6B0-27C6D4C17445}" name="Date" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{4F3ACB28-FC7F-4F52-9A7B-AA093AB8BF4B}" name="Time (local)" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{FBFA26EF-9E99-4488-AF0B-A9A747C59602}" name="Date-Time" dataDxfId="12"/>
     <tableColumn id="12" xr3:uid="{36C52DCE-A075-4286-9B35-5E0D2CF3A514}" name="Status"/>
-    <tableColumn id="13" xr3:uid="{A9A60077-0CBE-476E-8807-1E0CB0BF9805}" name="Unique_Ref" dataDxfId="12"/>
-    <tableColumn id="19" xr3:uid="{713C8544-1864-4B30-97E2-70CCC09FD9B8}" name="Start_time" dataDxfId="11"/>
-    <tableColumn id="24" xr3:uid="{D30196EB-8417-45E8-B214-678E0E600FC0}" name="Duration_days" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{A9A60077-0CBE-476E-8807-1E0CB0BF9805}" name="Unique_Ref" dataDxfId="11"/>
+    <tableColumn id="19" xr3:uid="{713C8544-1864-4B30-97E2-70CCC09FD9B8}" name="Start_time" dataDxfId="10"/>
+    <tableColumn id="24" xr3:uid="{D30196EB-8417-45E8-B214-678E0E600FC0}" name="Duration_days" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FD93443-3896-49C4-A85A-D6D7D986169B}" name="Table1" displayName="Table1" ref="A1:S91" totalsRowShown="0">
-  <autoFilter ref="A1:S91" xr:uid="{193B71A7-6D10-47CD-A9B7-B6CF6DD4F518}"/>
-  <tableColumns count="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FD93443-3896-49C4-A85A-D6D7D986169B}" name="Table1" displayName="Table1" ref="A1:R91" totalsRowShown="0">
+  <autoFilter ref="A1:R91" xr:uid="{193B71A7-6D10-47CD-A9B7-B6CF6DD4F518}"/>
+  <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{53324B2E-8F16-40C0-A24B-2913E73992C4}" name="Debtor"/>
     <tableColumn id="2" xr3:uid="{8988DF79-2383-42A7-B735-6772E3B96678}" name="Creditor"/>
     <tableColumn id="3" xr3:uid="{B7D3EE5A-3A02-4DB2-B3D9-356D29202D0B}" name="Type"/>
@@ -3638,14 +3631,13 @@
     <tableColumn id="10" xr3:uid="{7777CE65-7436-4DB3-BA74-D75D8B108C02}" name="BIC_Country"/>
     <tableColumn id="15" xr3:uid="{A719F3D0-339A-4CBD-B9E0-F0D26ACF2342}" name="BIC_Location"/>
     <tableColumn id="8" xr3:uid="{9FE0F7A5-58EF-4863-A9D1-1C66E8AD213D}" name="Charges"/>
-    <tableColumn id="9" xr3:uid="{0F5F4C44-58EE-461D-99BD-9065104240C9}" name="Date" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{87008F66-CA80-4820-AD11-8D9F1BCB341D}" name="Time (local)" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{72B68412-4B91-41A6-AACB-168227A5F484}" name="Date-Time" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{0F5F4C44-58EE-461D-99BD-9065104240C9}" name="Date" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{87008F66-CA80-4820-AD11-8D9F1BCB341D}" name="Time (local)" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{72B68412-4B91-41A6-AACB-168227A5F484}" name="Date-Time" dataDxfId="4"/>
     <tableColumn id="12" xr3:uid="{5EF95A3D-4C8E-4476-95A5-718A576B10D9}" name="Status"/>
-    <tableColumn id="13" xr3:uid="{67E7DDFA-4BD5-40DE-B764-59D6D882B98A}" name="Unique_Ref" dataDxfId="6"/>
-    <tableColumn id="19" xr3:uid="{5C5EBB4C-8B78-4180-B4E9-E96CA09E0792}" name="Start_time" dataDxfId="5"/>
-    <tableColumn id="24" xr3:uid="{3FAFF8E9-665A-4F31-98CB-19AF910F6D17}" name="Duration_days" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{8F998FF3-9FF2-4878-82C2-054FD641C6BD}" name="Month" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{67E7DDFA-4BD5-40DE-B764-59D6D882B98A}" name="Unique_Ref" dataDxfId="3"/>
+    <tableColumn id="19" xr3:uid="{5C5EBB4C-8B78-4180-B4E9-E96CA09E0792}" name="Start_time" dataDxfId="2"/>
+    <tableColumn id="24" xr3:uid="{3FAFF8E9-665A-4F31-98CB-19AF910F6D17}" name="Duration_days" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3656,7 +3648,7 @@
   <autoFilter ref="A1:C39" xr:uid="{CE33C19A-159B-4379-8DFC-981EFB7CC664}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{5895FE6D-3470-406B-8C77-307F60626389}" name="Unique_Ref"/>
-    <tableColumn id="2" xr3:uid="{BFFA7F9E-C0DE-45A7-8E42-BB36846517B7}" name="Start_date" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{BFFA7F9E-C0DE-45A7-8E42-BB36846517B7}" name="Start_date" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{ED006BF9-C134-4322-93C0-20425BBFEE11}" name="End_date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3962,7 +3954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121B5E6C-D24C-498D-9F12-BF0D9398947C}">
   <dimension ref="A1:S91"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="I1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="I1" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
@@ -9667,38 +9659,38 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="17">
         <v>1</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18">
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17">
         <v>2</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18">
+      <c r="G19" s="17"/>
+      <c r="H19" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="17">
         <v>1</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18">
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17">
         <v>2</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18">
+      <c r="G20" s="17"/>
+      <c r="H20" s="17">
         <v>3</v>
       </c>
     </row>
@@ -9743,38 +9735,38 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="17">
         <v>1</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18">
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17">
         <v>2</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18">
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="17">
         <v>1</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18">
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17">
         <v>2</v>
       </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18">
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17">
         <v>3</v>
       </c>
     </row>
@@ -10193,10 +10185,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CF87D3-5296-44C7-898D-811DB0F715A2}">
-  <dimension ref="A1:S91"/>
+  <dimension ref="A1:R91"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="I1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L62" sqref="L62"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A69" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10208,20 +10200,19 @@
     <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54.5546875" customWidth="1"/>
+    <col min="8" max="8" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" style="1" customWidth="1"/>
     <col min="16" max="16" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31.88671875" customWidth="1"/>
-    <col min="18" max="18" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5546875" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10276,11 +10267,8 @@
       <c r="R1" t="s">
         <v>158</v>
       </c>
-      <c r="S1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -10335,11 +10323,8 @@
       <c r="R2" s="13">
         <v>0</v>
       </c>
-      <c r="S2" s="16">
-        <v>44571</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -10394,11 +10379,8 @@
       <c r="R3" s="13">
         <v>1.0756944444437977</v>
       </c>
-      <c r="S3" s="16">
-        <v>44572</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -10453,11 +10435,8 @@
       <c r="R4" s="13">
         <v>1.2347222222160781</v>
       </c>
-      <c r="S4" s="16">
-        <v>44572</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -10512,11 +10491,8 @@
       <c r="R5" s="13">
         <v>0</v>
       </c>
-      <c r="S5" s="16">
-        <v>44474</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -10571,11 +10547,8 @@
       <c r="R6" s="13">
         <v>7.5694444443797693E-2</v>
       </c>
-      <c r="S6" s="16">
-        <v>44474</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -10630,11 +10603,8 @@
       <c r="R7" s="13">
         <v>2.2347222222160781</v>
       </c>
-      <c r="S7" s="16">
-        <v>44476</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -10689,11 +10659,8 @@
       <c r="R8" s="13">
         <v>0</v>
       </c>
-      <c r="S8" s="16">
-        <v>44234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -10748,11 +10715,8 @@
       <c r="R9" s="13">
         <v>1.0680555555518367</v>
       </c>
-      <c r="S9" s="16">
-        <v>44235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -10807,11 +10771,8 @@
       <c r="R10" s="13">
         <v>0.97222222221898846</v>
       </c>
-      <c r="S10" s="16">
-        <v>44306</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -10866,11 +10827,8 @@
       <c r="R11" s="13">
         <v>0</v>
       </c>
-      <c r="S11" s="16">
-        <v>44275</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -10925,11 +10883,8 @@
       <c r="R12" s="13">
         <v>0.97222222221898846</v>
       </c>
-      <c r="S12" s="16">
-        <v>44276</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -10984,11 +10939,8 @@
       <c r="R13" s="13">
         <v>0</v>
       </c>
-      <c r="S13" s="16">
-        <v>44305</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -11043,11 +10995,8 @@
       <c r="R14" s="13">
         <v>0</v>
       </c>
-      <c r="S14" s="16">
-        <v>44277</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -11102,11 +11051,8 @@
       <c r="R15" s="13">
         <v>0.12361111111385981</v>
       </c>
-      <c r="S15" s="16">
-        <v>44277</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -11161,11 +11107,8 @@
       <c r="R16" s="13">
         <v>0</v>
       </c>
-      <c r="S16" s="16">
-        <v>44388</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -11220,11 +11163,8 @@
       <c r="R17" s="13">
         <v>0.30763888888759539</v>
       </c>
-      <c r="S17" s="16">
-        <v>44388</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -11279,11 +11219,8 @@
       <c r="R18" s="13">
         <v>0</v>
       </c>
-      <c r="S18" s="16">
-        <v>44271</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -11338,11 +11275,8 @@
       <c r="R19" s="13">
         <v>0.30763888888759539</v>
       </c>
-      <c r="S19" s="16">
-        <v>44271</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -11397,11 +11331,8 @@
       <c r="R20" s="13">
         <v>0</v>
       </c>
-      <c r="S20" s="16">
-        <v>44297</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -11456,11 +11387,8 @@
       <c r="R21" s="13">
         <v>0.19305555555911269</v>
       </c>
-      <c r="S21" s="16">
-        <v>44297</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -11515,11 +11443,8 @@
       <c r="R22" s="13">
         <v>2.2333333333372138</v>
       </c>
-      <c r="S22" s="16">
-        <v>44299</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -11574,11 +11499,8 @@
       <c r="R23" s="13">
         <v>0</v>
       </c>
-      <c r="S23" s="16">
-        <v>44217</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -11633,11 +11555,8 @@
       <c r="R24" s="13">
         <v>6.1270833333328483</v>
       </c>
-      <c r="S24" s="16">
-        <v>44223</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -11692,11 +11611,8 @@
       <c r="R25" s="13">
         <v>0</v>
       </c>
-      <c r="S25" s="16">
-        <v>44271</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -11751,11 +11667,8 @@
       <c r="R26" s="13">
         <v>1.3125</v>
       </c>
-      <c r="S26" s="16">
-        <v>44272</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -11810,11 +11723,8 @@
       <c r="R27" s="13">
         <v>0</v>
       </c>
-      <c r="S27" s="16">
-        <v>44271</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -11869,11 +11779,8 @@
       <c r="R28" s="13">
         <v>0.13611111111094942</v>
       </c>
-      <c r="S28" s="16">
-        <v>44271</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -11928,11 +11835,8 @@
       <c r="R29" s="13">
         <v>0</v>
       </c>
-      <c r="S29" s="16">
-        <v>44240</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -11987,11 +11891,8 @@
       <c r="R30" s="13">
         <v>1.1361111111109494</v>
       </c>
-      <c r="S30" s="16">
-        <v>44241</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -12046,11 +11947,8 @@
       <c r="R31" s="13">
         <v>0</v>
       </c>
-      <c r="S31" s="16">
-        <v>44502</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -12105,11 +12003,8 @@
       <c r="R32" s="13">
         <v>1.1708333333372138</v>
       </c>
-      <c r="S32" s="16">
-        <v>44503</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -12164,11 +12059,8 @@
       <c r="R33" s="13">
         <v>1.375</v>
       </c>
-      <c r="S33" s="16">
-        <v>44503</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -12223,11 +12115,8 @@
       <c r="R34" s="13">
         <v>0</v>
       </c>
-      <c r="S34" s="16">
-        <v>44209</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -12282,11 +12171,8 @@
       <c r="R35" s="13">
         <v>5.694444444088731E-2</v>
       </c>
-      <c r="S35" s="16">
-        <v>44209</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -12341,11 +12227,8 @@
       <c r="R36" s="13">
         <v>0</v>
       </c>
-      <c r="S36" s="16">
-        <v>44217</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -12400,11 +12283,8 @@
       <c r="R37" s="13">
         <v>1.3180555555591127</v>
       </c>
-      <c r="S37" s="16">
-        <v>44218</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -12459,11 +12339,8 @@
       <c r="R38" s="13">
         <v>0</v>
       </c>
-      <c r="S38" s="16">
-        <v>44248</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>11</v>
       </c>
@@ -12518,11 +12395,8 @@
       <c r="R39" s="13">
         <v>5.5555555554747116E-2</v>
       </c>
-      <c r="S39" s="16">
-        <v>44248</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>11</v>
       </c>
@@ -12577,11 +12451,8 @@
       <c r="R40" s="13">
         <v>0.27708333333430346</v>
       </c>
-      <c r="S40" s="16">
-        <v>44248</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -12636,11 +12507,8 @@
       <c r="R41" s="13">
         <v>0</v>
       </c>
-      <c r="S41" s="16">
-        <v>44454</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>11</v>
       </c>
@@ -12695,11 +12563,8 @@
       <c r="R42" s="13">
         <v>1.0555555555547471</v>
       </c>
-      <c r="S42" s="16">
-        <v>44455</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>11</v>
       </c>
@@ -12754,11 +12619,8 @@
       <c r="R43" s="13">
         <v>1.2770833333343035</v>
       </c>
-      <c r="S43" s="16">
-        <v>44455</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -12813,11 +12675,8 @@
       <c r="R44" s="13">
         <v>0</v>
       </c>
-      <c r="S44" s="16">
-        <v>44253</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -12872,11 +12731,8 @@
       <c r="R45" s="13">
         <v>0.12361111110658385</v>
       </c>
-      <c r="S45" s="16">
-        <v>44253</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -12931,11 +12787,8 @@
       <c r="R46" s="13">
         <v>0.22708333333139308</v>
       </c>
-      <c r="S46" s="16">
-        <v>44253</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -12990,11 +12843,8 @@
       <c r="R47" s="13">
         <v>0</v>
       </c>
-      <c r="S47" s="16">
-        <v>44388</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -13049,11 +12899,8 @@
       <c r="R48" s="13">
         <v>1.1236111111065838</v>
       </c>
-      <c r="S48" s="16">
-        <v>44389</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -13108,11 +12955,8 @@
       <c r="R49" s="13">
         <v>2.2270833333313931</v>
       </c>
-      <c r="S49" s="16">
-        <v>44390</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -13167,11 +13011,8 @@
       <c r="R50" s="13">
         <v>0</v>
       </c>
-      <c r="S50" s="16">
-        <v>44256</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -13226,11 +13067,8 @@
       <c r="R51" s="13">
         <v>0.20069444444379769</v>
       </c>
-      <c r="S51" s="16">
-        <v>44256</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -13285,11 +13123,8 @@
       <c r="R52" s="13">
         <v>0</v>
       </c>
-      <c r="S52" s="16">
-        <v>44256</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -13344,11 +13179,8 @@
       <c r="R53" s="13">
         <v>0.28263888888614019</v>
       </c>
-      <c r="S53" s="16">
-        <v>44256</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -13403,11 +13235,8 @@
       <c r="R54" s="13">
         <v>0</v>
       </c>
-      <c r="S54" s="16">
-        <v>44257</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -13462,11 +13291,8 @@
       <c r="R55" s="13">
         <v>6.3194444446708076E-2</v>
       </c>
-      <c r="S55" s="16">
-        <v>44257</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -13521,11 +13347,8 @@
       <c r="R56" s="13">
         <v>0</v>
       </c>
-      <c r="S56" s="16">
-        <v>44257</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -13580,11 +13403,8 @@
       <c r="R57" s="13">
         <v>1.0430555555503815</v>
       </c>
-      <c r="S57" s="16">
-        <v>44258</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -13639,11 +13459,8 @@
       <c r="R58" s="13">
         <v>1.1513888888875954</v>
       </c>
-      <c r="S58" s="16">
-        <v>44258</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -13698,11 +13515,8 @@
       <c r="R59" s="13">
         <v>0</v>
       </c>
-      <c r="S59" s="16">
-        <v>44210</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -13757,11 +13571,8 @@
       <c r="R60" s="13">
         <v>0</v>
       </c>
-      <c r="S60" s="16">
-        <v>44210</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>11</v>
       </c>
@@ -13816,11 +13627,8 @@
       <c r="R61" s="13">
         <v>0.875</v>
       </c>
-      <c r="S61" s="16">
-        <v>44211</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -13875,11 +13683,8 @@
       <c r="R62" s="13">
         <v>0</v>
       </c>
-      <c r="S62" s="16">
-        <v>44211</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -13934,11 +13739,8 @@
       <c r="R63" s="13">
         <v>0</v>
       </c>
-      <c r="S63" s="16">
-        <v>44211</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -13993,11 +13795,8 @@
       <c r="R64" s="13">
         <v>0.17013888889050577</v>
       </c>
-      <c r="S64" s="16">
-        <v>44211</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -14052,11 +13851,8 @@
       <c r="R65" s="13">
         <v>0</v>
       </c>
-      <c r="S65" s="16">
-        <v>44201</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>11</v>
       </c>
@@ -14111,11 +13907,8 @@
       <c r="R66" s="13">
         <v>4.8611111124046147E-3</v>
       </c>
-      <c r="S66" s="16">
-        <v>44201</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -14170,11 +13963,8 @@
       <c r="R67" s="13">
         <v>0.21388888888759539</v>
       </c>
-      <c r="S67" s="16">
-        <v>44201</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -14229,11 +14019,8 @@
       <c r="R68" s="13">
         <v>0</v>
       </c>
-      <c r="S68" s="16">
-        <v>44224</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -14288,11 +14075,8 @@
       <c r="R69" s="13">
         <v>0.24097222222189885</v>
       </c>
-      <c r="S69" s="16">
-        <v>44224</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -14347,11 +14131,8 @@
       <c r="R70" s="13">
         <v>0</v>
       </c>
-      <c r="S70" s="16">
-        <v>44209</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -14406,11 +14187,8 @@
       <c r="R71" s="13">
         <v>0</v>
       </c>
-      <c r="S71" s="16">
-        <v>44209</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -14465,11 +14243,8 @@
       <c r="R72" s="13">
         <v>0</v>
       </c>
-      <c r="S72" s="16">
-        <v>44155</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -14524,11 +14299,8 @@
       <c r="R73" s="13">
         <v>2.3319444444496185</v>
       </c>
-      <c r="S73" s="16">
-        <v>44157</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -14583,11 +14355,8 @@
       <c r="R74" s="13">
         <v>0</v>
       </c>
-      <c r="S74" s="16">
-        <v>44522</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -14642,11 +14411,8 @@
       <c r="R75" s="13">
         <v>2.1472222222218988</v>
       </c>
-      <c r="S75" s="16">
-        <v>44524</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -14701,11 +14467,8 @@
       <c r="R76" s="13">
         <v>0</v>
       </c>
-      <c r="S76" s="16">
-        <v>44520</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -14760,11 +14523,8 @@
       <c r="R77" s="13">
         <v>1.0479166666700621</v>
       </c>
-      <c r="S77" s="16">
-        <v>44521</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -14819,11 +14579,8 @@
       <c r="R78" s="13">
         <v>0</v>
       </c>
-      <c r="S78" s="16">
-        <v>44156</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -14878,11 +14635,8 @@
       <c r="R79" s="13">
         <v>0.11736111110803904</v>
       </c>
-      <c r="S79" s="16">
-        <v>44156</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>11</v>
       </c>
@@ -14937,11 +14691,8 @@
       <c r="R80" s="13">
         <v>0</v>
       </c>
-      <c r="S80" s="16">
-        <v>44155</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -14996,11 +14747,8 @@
       <c r="R81" s="13">
         <v>0.41041666666569654</v>
       </c>
-      <c r="S81" s="16">
-        <v>44155</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -15055,11 +14803,8 @@
       <c r="R82" s="13">
         <v>0</v>
       </c>
-      <c r="S82" s="16">
-        <v>44162</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -15114,11 +14859,8 @@
       <c r="R83" s="13">
         <v>0.35763888889050577</v>
       </c>
-      <c r="S83" s="16">
-        <v>44162</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -15173,11 +14915,8 @@
       <c r="R84" s="13">
         <v>0</v>
       </c>
-      <c r="S84" s="16">
-        <v>44549</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -15232,11 +14971,8 @@
       <c r="R85" s="13">
         <v>1.5749999999970896</v>
       </c>
-      <c r="S85" s="16">
-        <v>44551</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -15291,11 +15027,8 @@
       <c r="R86" s="13">
         <v>1.1368055555503815</v>
       </c>
-      <c r="S86" s="16">
-        <v>44550</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -15350,11 +15083,8 @@
       <c r="R87" s="13">
         <v>0</v>
       </c>
-      <c r="S87" s="16">
-        <v>44271</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -15409,11 +15139,8 @@
       <c r="R88" s="13">
         <v>0.53125</v>
       </c>
-      <c r="S88" s="16">
-        <v>44271</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -15468,11 +15195,8 @@
       <c r="R89" s="13">
         <v>2.59375</v>
       </c>
-      <c r="S89" s="16">
-        <v>44273</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -15527,11 +15251,8 @@
       <c r="R90" s="13">
         <v>0</v>
       </c>
-      <c r="S90" s="16">
-        <v>44278</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>11</v>
       </c>
@@ -15585,9 +15306,6 @@
       </c>
       <c r="R91" s="13">
         <v>0.18194444444088731</v>
-      </c>
-      <c r="S91" s="16">
-        <v>44278</v>
       </c>
     </row>
   </sheetData>
